--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1883.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1883.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.701466006880715</v>
+        <v>1.622815847396851</v>
       </c>
       <c r="B1">
-        <v>4.508583183217731</v>
+        <v>1.616479992866516</v>
       </c>
       <c r="C1">
-        <v>3.840841176412001</v>
+        <v>1.948170185089111</v>
       </c>
       <c r="D1">
-        <v>1.07352789295023</v>
+        <v>3.683640718460083</v>
       </c>
       <c r="E1">
-        <v>0.6316368836479206</v>
+        <v>4.388773441314697</v>
       </c>
     </row>
   </sheetData>
